--- a/data/artiattr.xlsx
+++ b/data/artiattr.xlsx
@@ -155,8 +155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -797,10 +798,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +818,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,260 +1145,320 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="23" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14285714285714" style="2"/>
+    <col min="2" max="23" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+    <row r="4" s="1" customFormat="1" spans="1:23">
+      <c r="A4" s="7">
         <v>10001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>20</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
+    <row r="5" s="1" customFormat="1" spans="1:23">
+      <c r="A5" s="7">
         <v>10002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>50</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>50</v>
       </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" s="1" customFormat="1" spans="1:23">
+      <c r="A6" s="7">
         <v>10003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>100</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>100</v>
       </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/artiattr.xlsx
+++ b/data/artiattr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11200"/>
+    <workbookView windowWidth="12040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/artiattr.xlsx
+++ b/data/artiattr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12040" windowHeight="8460"/>
+    <workbookView windowWidth="24860" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,9 @@
     <t>准确下限</t>
   </si>
   <si>
+    <t>准确上限</t>
+  </si>
+  <si>
     <t>暴击率下限</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>闪避上限</t>
-  </si>
-  <si>
-    <t>切割率上限</t>
   </si>
   <si>
     <t>切割率下限</t>
@@ -156,11 +156,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -179,7 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +202,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,31 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,9 +247,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,60 +286,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,6 +342,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,175 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +584,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,21 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,165 +648,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1304,28 +1304,28 @@
         <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>32</v>
@@ -1445,10 +1445,18 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>100</v>
+      </c>
+      <c r="L6" s="7">
+        <v>10</v>
+      </c>
+      <c r="M6" s="7">
+        <v>30</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
